--- a/optics.sample.log.ALL.xlsx
+++ b/optics.sample.log.ALL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="320">
   <si>
     <t>US-S104</t>
   </si>
@@ -962,6 +962,21 @@
   </si>
   <si>
     <t>Sample Codes (1=10L-IND, 2=10L-COM, 3=350ml-IND, 4=350ml-COM, 5=Grab-E, 6=Grab-W</t>
+  </si>
+  <si>
+    <t>In regression dataset?</t>
+  </si>
+  <si>
+    <t>No: US site not included</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No: out of deicing season</t>
+  </si>
+  <si>
+    <t>No: Aqualog Id listed, but file missing</t>
   </si>
 </sst>
 </file>
@@ -1526,25 +1541,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800"/>
-      <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <pane ySplit="1800" topLeftCell="A133" activePane="bottomLeft"/>
+      <selection activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>52</v>
       </c>
@@ -1554,26 +1569,29 @@
       <c r="C1" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>47</v>
       </c>
@@ -1583,21 +1601,24 @@
       <c r="C2" s="26">
         <v>2</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="28">
         <v>41617.4375</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="G2">
-        <v>20131211</v>
       </c>
       <c r="H2">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>47</v>
       </c>
@@ -1607,23 +1628,26 @@
       <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="28">
         <v>41627.989583333336</v>
       </c>
-      <c r="E3" s="28">
+      <c r="F3" s="28">
         <v>41628.548611111109</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="G3">
-        <v>20131223</v>
       </c>
       <c r="H3">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
@@ -1633,21 +1657,24 @@
       <c r="C4" s="26">
         <v>5</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="28">
         <v>41628.659722222219</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="G4">
-        <v>20131223</v>
       </c>
       <c r="H4">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
@@ -1657,23 +1684,26 @@
       <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="28">
         <v>41649.725694444445</v>
       </c>
-      <c r="E5" s="28">
+      <c r="F5" s="28">
         <v>41650.885416666664</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20140122</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20140121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>47</v>
       </c>
@@ -1683,21 +1713,24 @@
       <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="28">
         <v>41651.579861111109</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20140122</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20140121</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>47</v>
       </c>
@@ -1707,26 +1740,29 @@
       <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="28">
         <v>41690.246527777781</v>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="28">
         <v>41691.107638888891</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20140305</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>20140227</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>47</v>
       </c>
@@ -1736,24 +1772,27 @@
       <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="28">
         <v>41691.520833333336</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20140305</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20140227</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
@@ -1763,23 +1802,26 @@
       <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="28">
         <v>41743.638888888891</v>
       </c>
-      <c r="E9" s="28">
+      <c r="F9" s="28">
         <v>41744.472222222219</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20140424</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>20140423</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -1789,21 +1831,24 @@
       <c r="C10" s="26">
         <v>5</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="28">
         <v>41744.46875</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20140424</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20140423</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>47</v>
       </c>
@@ -1813,21 +1858,24 @@
       <c r="C11" s="26">
         <v>2</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="28">
         <v>41886.760416666664</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20140908</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20140905</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>47</v>
       </c>
@@ -1837,23 +1885,26 @@
       <c r="C12" s="31">
         <v>2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="32">
         <v>41965.170138888891</v>
       </c>
-      <c r="E12" s="32">
+      <c r="F12" s="32">
         <v>41965.489583333336</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="G12">
-        <v>20141201</v>
       </c>
       <c r="H12">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>47</v>
       </c>
@@ -1863,21 +1914,24 @@
       <c r="C13" s="31">
         <v>5</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="32">
         <v>41965.645833333336</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="G13">
-        <v>20141201</v>
       </c>
       <c r="H13">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>47</v>
       </c>
@@ -1887,24 +1941,27 @@
       <c r="C14" s="31">
         <v>6</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="32">
         <v>41978.447916666664</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="G14">
-        <v>20141210</v>
       </c>
       <c r="H14">
         <v>20141210</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>20141210</v>
+      </c>
+      <c r="J14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
@@ -1914,23 +1971,26 @@
       <c r="C15" s="31">
         <v>2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="32">
         <v>41981.267361111109</v>
       </c>
-      <c r="E15" s="32">
+      <c r="F15" s="32">
         <v>41981.833333333336</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="G15" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="G15">
-        <v>20141210</v>
       </c>
       <c r="H15">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>47</v>
       </c>
@@ -1940,21 +2000,24 @@
       <c r="C16" s="31">
         <v>5</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="32">
         <v>41982.489583333336</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="G16">
-        <v>20141210</v>
       </c>
       <c r="H16">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>47</v>
       </c>
@@ -1964,24 +2027,27 @@
       <c r="C17" s="31">
         <v>6</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="32">
         <v>41988.583333333336</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20150112</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20141216</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
@@ -1991,24 +2057,27 @@
       <c r="C18" s="31">
         <v>6</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="32">
         <v>41995.46875</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20150112</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20141223</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
@@ -2018,23 +2087,26 @@
       <c r="C19" s="41">
         <v>2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="32">
         <v>42008.28125</v>
       </c>
-      <c r="E19" s="32">
+      <c r="F19" s="32">
         <v>42008.770833333336</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="G19" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20150112</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20150106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>47</v>
       </c>
@@ -2044,23 +2116,26 @@
       <c r="C20" s="41">
         <v>1</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="32">
         <v>42008.28125</v>
       </c>
-      <c r="E20" s="32">
+      <c r="F20" s="32">
         <v>42008.451388888891</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="G20" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20150112</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20150106</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>47</v>
       </c>
@@ -2070,23 +2145,26 @@
       <c r="C21" s="41">
         <v>1</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="32">
         <v>42008.496527777781</v>
       </c>
-      <c r="E21" s="32">
+      <c r="F21" s="32">
         <v>42008.770833333336</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="G21" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>20150112</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20150106</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>47</v>
       </c>
@@ -2096,21 +2174,24 @@
       <c r="C22" s="31">
         <v>6</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="32">
         <v>42019.614583333336</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>20150120</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20150116</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>47</v>
       </c>
@@ -2120,23 +2201,26 @@
       <c r="C23" s="31">
         <v>2</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="32">
         <v>42072.597222222219</v>
       </c>
-      <c r="E23" s="32">
+      <c r="F23" s="32">
         <v>42075.0625</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="G23" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20150324</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>20150313</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>47</v>
       </c>
@@ -2146,23 +2230,26 @@
       <c r="C24" s="31">
         <v>2</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="32">
         <v>42086.371527777781</v>
       </c>
-      <c r="E24" s="32">
+      <c r="F24" s="32">
         <v>42086.885416666664</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="G24" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="G24">
-        <v>20150326</v>
       </c>
       <c r="H24">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
@@ -2172,23 +2259,26 @@
       <c r="C25" s="31">
         <v>1</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="32">
         <v>42086.371527777781</v>
       </c>
-      <c r="E25" s="32">
+      <c r="F25" s="32">
         <v>42086.590277777781</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>301</v>
-      </c>
-      <c r="G25">
-        <v>20150326</v>
       </c>
       <c r="H25">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
@@ -2198,23 +2288,26 @@
       <c r="C26" s="31">
         <v>1</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="32">
         <v>42086.607638888891</v>
       </c>
-      <c r="E26" s="32">
+      <c r="F26" s="32">
         <v>42086.753472222219</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="G26" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="G26">
-        <v>20150326</v>
       </c>
       <c r="H26">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>47</v>
       </c>
@@ -2224,23 +2317,26 @@
       <c r="C27" s="31">
         <v>1</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="32">
         <v>42086.770833333336</v>
       </c>
-      <c r="E27" s="32">
+      <c r="F27" s="32">
         <v>42086.885416666664</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="G27" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="G27">
-        <v>20150326</v>
       </c>
       <c r="H27">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>47</v>
       </c>
@@ -2250,23 +2346,26 @@
       <c r="C28" s="31">
         <v>2</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="32">
         <v>42150.569444444445</v>
       </c>
-      <c r="E28" s="32">
+      <c r="F28" s="32">
         <v>42151.354166666664</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="G28" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>20150625</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>20150529</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>47</v>
       </c>
@@ -2276,23 +2375,26 @@
       <c r="C29" s="31">
         <v>2</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="32">
         <v>42255.451388888891</v>
       </c>
-      <c r="E29" s="32">
+      <c r="F29" s="32">
         <v>42255.722222222219</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="G29" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>20150910</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>20150911</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>48</v>
       </c>
@@ -2302,23 +2404,26 @@
       <c r="C30" s="26">
         <v>2</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="28">
         <v>41616.482638888891</v>
       </c>
-      <c r="E30" s="28">
+      <c r="F30" s="28">
         <v>41617.434027777781</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="G30" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="G30">
-        <v>20131211</v>
       </c>
       <c r="H30">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>48</v>
       </c>
@@ -2328,21 +2433,24 @@
       <c r="C31" s="26">
         <v>5</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="28">
         <v>41617.625</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="G31">
-        <v>20131211</v>
       </c>
       <c r="H31">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>48</v>
       </c>
@@ -2352,23 +2460,26 @@
       <c r="C32" s="26">
         <v>2</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="28">
         <v>41627.96875</v>
       </c>
-      <c r="E32" s="28">
+      <c r="F32" s="28">
         <v>41628.548611111109</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="G32" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="G32">
-        <v>20131223</v>
       </c>
       <c r="H32">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>48</v>
       </c>
@@ -2378,21 +2489,24 @@
       <c r="C33" s="26">
         <v>5</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="28">
         <v>41628.711805555555</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="G33">
-        <v>20131223</v>
       </c>
       <c r="H33">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>48</v>
       </c>
@@ -2402,23 +2516,26 @@
       <c r="C34" s="26">
         <v>2</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="28">
         <v>41649.697916666664</v>
       </c>
-      <c r="E34" s="28">
+      <c r="F34" s="28">
         <v>41650.96875</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>20140122</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>20140121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>48</v>
       </c>
@@ -2428,21 +2545,24 @@
       <c r="C35" s="26">
         <v>5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="28">
         <v>41651.545138888891</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>20140122</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>20140121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>48</v>
       </c>
@@ -2452,26 +2572,29 @@
       <c r="C36" s="26">
         <v>2</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="28">
         <v>41690.236111111109</v>
       </c>
-      <c r="E36" s="28">
+      <c r="F36" s="28">
         <v>41691.413194444445</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="G36" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>20140305</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>20140227</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>48</v>
       </c>
@@ -2481,24 +2604,27 @@
       <c r="C37" s="26">
         <v>5</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="28">
         <v>41691.493055555555</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>20140305</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>20140227</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
@@ -2508,23 +2634,26 @@
       <c r="C38" s="26">
         <v>2</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="28">
         <v>41743.625</v>
       </c>
-      <c r="E38" s="28">
+      <c r="F38" s="28">
         <v>41744.402777777781</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>20140424</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>20140423</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>48</v>
       </c>
@@ -2534,21 +2663,24 @@
       <c r="C39" s="26">
         <v>5</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="28">
         <v>41744.430555555555</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="28"/>
+      <c r="G39" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>20140424</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>20140423</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>48</v>
       </c>
@@ -2558,23 +2690,26 @@
       <c r="C40" s="26">
         <v>2</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="28">
         <v>41886.21875</v>
       </c>
-      <c r="E40" s="28">
+      <c r="F40" s="28">
         <v>41886.65625</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="G40" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>20140908</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>20140905</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>48</v>
       </c>
@@ -2584,21 +2719,24 @@
       <c r="C41" s="26">
         <v>5</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" s="28">
         <v>41886.8125</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="28"/>
+      <c r="G41" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>20140908</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>20140905</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>48</v>
       </c>
@@ -2608,23 +2746,26 @@
       <c r="C42" s="31">
         <v>2</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="32">
         <v>41965.128472222219</v>
       </c>
-      <c r="E42" s="32">
+      <c r="F42" s="32">
         <v>41965.447916666664</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="G42">
-        <v>20141201</v>
       </c>
       <c r="H42">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>48</v>
       </c>
@@ -2634,21 +2775,24 @@
       <c r="C43" s="31">
         <v>5</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E43" s="32">
         <v>41963.729166666664</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="G43">
-        <v>20141201</v>
       </c>
       <c r="H43">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>48</v>
       </c>
@@ -2658,24 +2802,27 @@
       <c r="C44" s="31">
         <v>6</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" s="32">
         <v>41978.416666666664</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="G44">
-        <v>20141210</v>
       </c>
       <c r="H44">
         <v>20141210</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44">
+        <v>20141210</v>
+      </c>
+      <c r="J44" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>48</v>
       </c>
@@ -2685,23 +2832,26 @@
       <c r="C45" s="31">
         <v>2</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="32">
         <v>41981.243055555555</v>
       </c>
-      <c r="E45" s="32">
+      <c r="F45" s="32">
         <v>41982.111111111109</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="G45" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="G45">
-        <v>20141210</v>
       </c>
       <c r="H45">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>48</v>
       </c>
@@ -2711,21 +2861,24 @@
       <c r="C46" s="31">
         <v>5</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="32">
         <v>41982.458333333336</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="32"/>
+      <c r="G46" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="G46">
-        <v>20141210</v>
       </c>
       <c r="H46">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>48</v>
       </c>
@@ -2735,24 +2888,27 @@
       <c r="C47" s="31">
         <v>6</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" s="32">
         <v>41988.625</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>20150112</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>20141216</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>48</v>
       </c>
@@ -2762,24 +2918,27 @@
       <c r="C48" s="31">
         <v>6</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" s="32">
         <v>41995.444444444445</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>20150112</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>20141223</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
@@ -2789,23 +2948,26 @@
       <c r="C49" s="38">
         <v>2</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" s="39">
         <v>42007.166666666664</v>
       </c>
-      <c r="E49" s="39">
+      <c r="F49" s="39">
         <v>42008.868055555555</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="G49" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>20150112</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>20150106</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>48</v>
       </c>
@@ -2815,23 +2977,26 @@
       <c r="C50" s="38">
         <v>1</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" s="39">
         <v>42007.166666666664</v>
       </c>
-      <c r="E50" s="39">
+      <c r="F50" s="39">
         <v>42007.850694444445</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="G50" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>20150112</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>20150106</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>48</v>
       </c>
@@ -2841,23 +3006,26 @@
       <c r="C51" s="38">
         <v>1</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E51" s="39">
         <v>42007.909722222219</v>
       </c>
-      <c r="E51" s="39">
+      <c r="F51" s="39">
         <v>42008.079861111109</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="G51" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>20150112</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>20150106</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>48</v>
       </c>
@@ -2867,23 +3035,26 @@
       <c r="C52" s="38">
         <v>1</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" s="39">
         <v>42008.142361111109</v>
       </c>
-      <c r="E52" s="39">
+      <c r="F52" s="39">
         <v>42008.868055555555</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="G52" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>20150112</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>20150106</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>48</v>
       </c>
@@ -2893,21 +3064,24 @@
       <c r="C53" s="38">
         <v>5</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" s="39">
         <v>42009.440972222219</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>20150112</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>20150106</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>48</v>
       </c>
@@ -2917,21 +3091,24 @@
       <c r="C54" s="38">
         <v>6</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="39">
         <v>42019.440972222219</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="39"/>
+      <c r="G54" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>20150120</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>20150116</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>48</v>
       </c>
@@ -2941,23 +3118,26 @@
       <c r="C55" s="38">
         <v>2</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="39">
         <v>42066.236111111109</v>
       </c>
-      <c r="E55" s="39">
+      <c r="F55" s="39">
         <v>42066.916666666664</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="G55" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>20150311</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>20150306</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>48</v>
       </c>
@@ -2967,21 +3147,24 @@
       <c r="C56" s="38">
         <v>3</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="39">
         <v>42066.090277777781</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="39"/>
+      <c r="G56" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>20150311</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>20150306</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>48</v>
       </c>
@@ -2991,21 +3174,24 @@
       <c r="C57" s="38">
         <v>3</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57" s="39">
         <v>42066.503472222219</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="39"/>
+      <c r="G57" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>20150311</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>20150306</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>48</v>
       </c>
@@ -3015,21 +3201,24 @@
       <c r="C58" s="38">
         <v>3</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" s="39">
         <v>42066.583333333336</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="39"/>
+      <c r="G58" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>20150311</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>20150306</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>48</v>
       </c>
@@ -3039,21 +3228,24 @@
       <c r="C59" s="38">
         <v>3</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" s="39">
         <v>42066.628472222219</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="39"/>
+      <c r="G59" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>20150311</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>20150306</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>48</v>
       </c>
@@ -3063,21 +3255,24 @@
       <c r="C60" s="38">
         <v>3</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="39">
         <v>42066.697916666664</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="39"/>
+      <c r="G60" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>20150311</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>20150306</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>48</v>
       </c>
@@ -3087,21 +3282,24 @@
       <c r="C61" s="38">
         <v>3</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" s="39">
         <v>42066.743055555555</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="39"/>
+      <c r="G61" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>20150311</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>20150306</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>48</v>
       </c>
@@ -3111,21 +3309,24 @@
       <c r="C62" s="38">
         <v>3</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="39">
         <v>42066.829861111109</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="39"/>
+      <c r="G62" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>20150311</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>20150306</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>48</v>
       </c>
@@ -3135,21 +3336,24 @@
       <c r="C63" s="38">
         <v>3</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="39">
         <v>42066.989583333336</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="39"/>
+      <c r="G63" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>20150311</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>20150306</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>48</v>
       </c>
@@ -3159,21 +3363,24 @@
       <c r="C64" s="38">
         <v>3</v>
       </c>
-      <c r="D64" s="39">
+      <c r="D64" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" s="39">
         <v>42067.305555555555</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="39"/>
+      <c r="G64" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>20150311</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>20150306</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>48</v>
       </c>
@@ -3183,21 +3390,24 @@
       <c r="C65" s="38">
         <v>3</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="39">
         <v>42067.447916666664</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="39"/>
+      <c r="G65" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>20150311</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>20150306</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>48</v>
       </c>
@@ -3207,23 +3417,26 @@
       <c r="C66" s="31">
         <v>2</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="32">
         <v>42072.565972222219</v>
       </c>
-      <c r="E66" s="32">
+      <c r="F66" s="32">
         <v>42075.03125</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="G66" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>20150324</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>20150313</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>48</v>
       </c>
@@ -3233,23 +3446,26 @@
       <c r="C67" s="46">
         <v>3</v>
       </c>
-      <c r="D67" s="39">
-        <v>42072.444444444445</v>
+      <c r="D67" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="E67" s="39">
         <v>42072.444444444445</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="39">
+        <v>42072.444444444445</v>
+      </c>
+      <c r="G67" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>20150324</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>20150313</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>48</v>
       </c>
@@ -3259,23 +3475,26 @@
       <c r="C68" s="46">
         <v>4</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="39">
         <v>42072.545138888891</v>
       </c>
-      <c r="E68" s="39">
+      <c r="F68" s="39">
         <v>42072.631944444445</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="G68" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>20150324</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>20150313</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>48</v>
       </c>
@@ -3285,23 +3504,26 @@
       <c r="C69" s="46">
         <v>3</v>
       </c>
-      <c r="D69" s="39">
-        <v>42072.697916666664</v>
+      <c r="D69" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="E69" s="39">
         <v>42072.697916666664</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="39">
+        <v>42072.697916666664</v>
+      </c>
+      <c r="G69" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>20150324</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>20150313</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>48</v>
       </c>
@@ -3311,23 +3533,26 @@
       <c r="C70" s="46">
         <v>4</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70" s="39">
         <v>42072.767361111109</v>
       </c>
-      <c r="E70" s="39">
+      <c r="F70" s="39">
         <v>42072.875</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="G70" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>20150324</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>20150313</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>48</v>
       </c>
@@ -3337,23 +3562,26 @@
       <c r="C71" s="46">
         <v>4</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="39">
         <v>42073.083333333336</v>
       </c>
-      <c r="E71" s="39">
+      <c r="F71" s="39">
         <v>42073.489583333336</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="G71" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>20150324</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>20150313</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>48</v>
       </c>
@@ -3363,23 +3591,26 @@
       <c r="C72" s="46">
         <v>4</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="39">
         <v>42073.576388888891</v>
       </c>
-      <c r="E72" s="39">
+      <c r="F72" s="39">
         <v>42073.65625</v>
       </c>
-      <c r="F72" s="31" t="s">
+      <c r="G72" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>20150324</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>20150313</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>48</v>
       </c>
@@ -3389,23 +3620,26 @@
       <c r="C73" s="46">
         <v>3</v>
       </c>
-      <c r="D73" s="39">
-        <v>42073.711805555555</v>
+      <c r="D73" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="E73" s="39">
         <v>42073.711805555555</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="39">
+        <v>42073.711805555555</v>
+      </c>
+      <c r="G73" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>20150324</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>20150313</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>48</v>
       </c>
@@ -3415,23 +3649,26 @@
       <c r="C74" s="46">
         <v>4</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="39">
         <v>42073.822916666664</v>
       </c>
-      <c r="E74" s="39">
+      <c r="F74" s="39">
         <v>42073.986111111109</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="G74" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>20150324</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>20150313</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>48</v>
       </c>
@@ -3441,23 +3678,26 @@
       <c r="C75" s="46">
         <v>4</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="39">
         <v>42074.138888888891</v>
       </c>
-      <c r="E75" s="39">
+      <c r="F75" s="39">
         <v>42074.409722222219</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="G75" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>20150324</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>20150313</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>48</v>
       </c>
@@ -3467,23 +3707,26 @@
       <c r="C76" s="46">
         <v>4</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E76" s="39">
         <v>42074.559027777781</v>
       </c>
-      <c r="E76" s="39">
+      <c r="F76" s="39">
         <v>42074.642361111109</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="G76" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>20150324</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>20150313</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>48</v>
       </c>
@@ -3493,23 +3736,26 @@
       <c r="C77" s="46">
         <v>3</v>
       </c>
-      <c r="D77" s="39">
-        <v>42074.708333333336</v>
+      <c r="D77" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="E77" s="39">
         <v>42074.708333333336</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="39">
+        <v>42074.708333333336</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>20150324</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>20150313</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>48</v>
       </c>
@@ -3519,23 +3765,26 @@
       <c r="C78" s="46">
         <v>4</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="39">
         <v>42074.774305555555</v>
       </c>
-      <c r="E78" s="39">
+      <c r="F78" s="39">
         <v>42074.989583333336</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="G78" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>20150324</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>20150313</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>48</v>
       </c>
@@ -3545,23 +3794,26 @@
       <c r="C79" s="31">
         <v>2</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="32">
         <v>42086.322916666664</v>
       </c>
-      <c r="E79" s="32">
+      <c r="F79" s="32">
         <v>42086.902777777781</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="G79" s="31" t="s">
         <v>278</v>
-      </c>
-      <c r="G79">
-        <v>20150326</v>
       </c>
       <c r="H79">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>48</v>
       </c>
@@ -3571,23 +3823,26 @@
       <c r="C80" s="31">
         <v>1</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E80" s="32">
         <v>42086.322916666664</v>
       </c>
-      <c r="E80" s="32">
+      <c r="F80" s="32">
         <v>42086.572916666664</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="G80" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="G80">
-        <v>20150326</v>
       </c>
       <c r="H80">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>48</v>
       </c>
@@ -3597,23 +3852,26 @@
       <c r="C81" s="31">
         <v>1</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="32">
         <v>42086.590277777781</v>
       </c>
-      <c r="E81" s="32">
+      <c r="F81" s="32">
         <v>42086.78125</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="G81" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="G81">
-        <v>20150326</v>
       </c>
       <c r="H81">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>48</v>
       </c>
@@ -3623,23 +3881,26 @@
       <c r="C82" s="31">
         <v>1</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="32">
         <v>42086.805555555555</v>
       </c>
-      <c r="E82" s="32">
+      <c r="F82" s="32">
         <v>42086.902777777781</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="G82" s="31" t="s">
         <v>281</v>
-      </c>
-      <c r="G82">
-        <v>20150326</v>
       </c>
       <c r="H82">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>48</v>
       </c>
@@ -3649,23 +3910,26 @@
       <c r="C83" s="31">
         <v>2</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E83" s="32">
         <v>42150.555555555555</v>
       </c>
-      <c r="E83" s="32">
+      <c r="F83" s="32">
         <v>42151.458333333336</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="G83" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>20150625</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>20150529</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>48</v>
       </c>
@@ -3675,23 +3939,26 @@
       <c r="C84" s="31">
         <v>2</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="32">
         <v>42255.357638888891</v>
       </c>
-      <c r="E84" s="32">
+      <c r="F84" s="32">
         <v>42255.663194444445</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="G84" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>20150910</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>20150911</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>49</v>
       </c>
@@ -3701,23 +3968,26 @@
       <c r="C85" s="26">
         <v>2</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" s="28">
         <v>41649.690972222219</v>
       </c>
-      <c r="E85" s="28">
+      <c r="F85" s="28">
         <v>41650.115972222222</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="G85" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>20140122</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>20140121</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>49</v>
       </c>
@@ -3727,21 +3997,24 @@
       <c r="C86" s="26">
         <v>5</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="28">
         <v>41651.645833333336</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="28"/>
+      <c r="G86" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>20140122</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>20140121</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>49</v>
       </c>
@@ -3751,26 +4024,29 @@
       <c r="C87" s="26">
         <v>2</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="28">
         <v>41690.236111111109</v>
       </c>
-      <c r="E87" s="28">
+      <c r="F87" s="28">
         <v>41690.984027777777</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="G87" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>20140305</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>20140227</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>49</v>
       </c>
@@ -3780,26 +4056,29 @@
       <c r="C88" s="26">
         <v>2</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="28">
         <v>41757.344444444447</v>
       </c>
-      <c r="E88" s="28">
+      <c r="F88" s="28">
         <v>41757.540277777778</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="G88" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>20140506</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>20140505</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>49</v>
       </c>
@@ -3809,23 +4088,26 @@
       <c r="C89" s="26">
         <v>2</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="28">
         <v>41886.213194444441</v>
       </c>
-      <c r="E89" s="28">
+      <c r="F89" s="28">
         <v>41886.381249999999</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="G89" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>20140908</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>20140905</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>49</v>
       </c>
@@ -3835,23 +4117,26 @@
       <c r="C90" s="31">
         <v>2</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E90" s="32">
         <v>41965.347916666666</v>
       </c>
-      <c r="E90" s="32">
+      <c r="F90" s="32">
         <v>41965.421527777777</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="G90" s="25" t="s">
         <v>132</v>
-      </c>
-      <c r="G90">
-        <v>20141201</v>
       </c>
       <c r="H90">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>49</v>
       </c>
@@ -3861,23 +4146,26 @@
       <c r="C91" s="31">
         <v>2</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E91" s="32">
         <v>41981.285416666666</v>
       </c>
-      <c r="E91" s="32">
+      <c r="F91" s="32">
         <v>41981.38958333333</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="G91" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="G91">
-        <v>20141210</v>
       </c>
       <c r="H91">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>49</v>
       </c>
@@ -3887,23 +4175,26 @@
       <c r="C92" s="31">
         <v>2</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="32">
         <v>42086.476388888892</v>
       </c>
-      <c r="E92" s="32">
+      <c r="F92" s="32">
         <v>42086.538194444445</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="G92" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="G92">
-        <v>20150326</v>
       </c>
       <c r="H92">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>49</v>
       </c>
@@ -3913,23 +4204,26 @@
       <c r="C93" s="31">
         <v>2</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E93" s="32">
         <v>42150.542361111111</v>
       </c>
-      <c r="E93" s="32">
+      <c r="F93" s="32">
         <v>42150.629861111112</v>
       </c>
-      <c r="F93" s="40" t="s">
+      <c r="G93" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>20150625</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>20150529</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>49</v>
       </c>
@@ -3939,23 +4233,26 @@
       <c r="C94" s="31">
         <v>2</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E94" s="32">
         <v>42255.28402777778</v>
       </c>
-      <c r="E94" s="32">
+      <c r="F94" s="32">
         <v>42255.368750000001</v>
       </c>
-      <c r="F94" s="40" t="s">
+      <c r="G94" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>20150910</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>20150911</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>50</v>
       </c>
@@ -3965,23 +4262,26 @@
       <c r="C95" s="26">
         <v>2</v>
       </c>
-      <c r="D95" s="28">
+      <c r="D95" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E95" s="28">
         <v>41617.965277777781</v>
       </c>
-      <c r="E95" s="28">
+      <c r="F95" s="28">
         <v>41617.708333333336</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="G95" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="G95">
-        <v>20131211</v>
       </c>
       <c r="H95">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>50</v>
       </c>
@@ -3991,21 +4291,24 @@
       <c r="C96" s="26">
         <v>5</v>
       </c>
-      <c r="D96" s="28">
+      <c r="D96" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" s="28">
         <v>41617.6875</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="26" t="s">
+      <c r="F96" s="28"/>
+      <c r="G96" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="G96">
-        <v>20131211</v>
       </c>
       <c r="H96">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>50</v>
       </c>
@@ -4015,23 +4318,26 @@
       <c r="C97" s="26">
         <v>2</v>
       </c>
-      <c r="D97" s="28">
+      <c r="D97" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="28">
         <v>41628.236111111109</v>
       </c>
-      <c r="E97" s="28">
+      <c r="F97" s="28">
         <v>41628.75</v>
       </c>
-      <c r="F97" s="26" t="s">
+      <c r="G97" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="G97">
-        <v>20131223</v>
       </c>
       <c r="H97">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>50</v>
       </c>
@@ -4041,21 +4347,24 @@
       <c r="C98" s="26">
         <v>5</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="28">
         <v>41628.770833333336</v>
       </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="26" t="s">
+      <c r="F98" s="28"/>
+      <c r="G98" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="G98">
-        <v>20131223</v>
       </c>
       <c r="H98">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>50</v>
       </c>
@@ -4065,23 +4374,26 @@
       <c r="C99" s="26">
         <v>2</v>
       </c>
-      <c r="D99" s="28">
+      <c r="D99" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" s="28">
         <v>41649.847222222219</v>
       </c>
-      <c r="E99" s="28">
+      <c r="F99" s="28">
         <v>41651.291666666664</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="G99" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>20140122</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>20140121</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>50</v>
       </c>
@@ -4091,21 +4403,24 @@
       <c r="C100" s="26">
         <v>5</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" s="28">
         <v>41651.697916666664</v>
       </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="26" t="s">
+      <c r="F100" s="28"/>
+      <c r="G100" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>20140122</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>20140121</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>50</v>
       </c>
@@ -4115,26 +4430,29 @@
       <c r="C101" s="26">
         <v>2</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" s="28">
         <v>41690.447916666664</v>
       </c>
-      <c r="E101" s="28">
+      <c r="F101" s="28">
         <v>41691.652777777781</v>
       </c>
-      <c r="F101" s="26" t="s">
+      <c r="G101" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>20140305</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>20140227</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>50</v>
       </c>
@@ -4144,24 +4462,27 @@
       <c r="C102" s="26">
         <v>5</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D102" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="28">
         <v>41691.65625</v>
       </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="26" t="s">
+      <c r="F102" s="28"/>
+      <c r="G102" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>20140305</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>20140227</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>50</v>
       </c>
@@ -4171,23 +4492,26 @@
       <c r="C103" s="26">
         <v>2</v>
       </c>
-      <c r="D103" s="28">
+      <c r="D103" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="28">
         <v>41743.798611111109</v>
       </c>
-      <c r="E103" s="28">
+      <c r="F103" s="28">
         <v>41744.586805555555</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="G103" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>20140424</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>20140423</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>50</v>
       </c>
@@ -4197,21 +4521,24 @@
       <c r="C104" s="26">
         <v>5</v>
       </c>
-      <c r="D104" s="28">
+      <c r="D104" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="28">
         <v>41744.590277777781</v>
       </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="28"/>
+      <c r="G104" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>20140424</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>20140423</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>50</v>
       </c>
@@ -4221,23 +4548,26 @@
       <c r="C105" s="26">
         <v>2</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D105" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" s="28">
         <v>41886.302083333336</v>
       </c>
-      <c r="E105" s="28">
+      <c r="F105" s="28">
         <v>41886.607638888891</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="G105" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>20140908</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>20140905</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>50</v>
       </c>
@@ -4247,21 +4577,24 @@
       <c r="C106" s="26">
         <v>5</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D106" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106" s="28">
         <v>41886.71875</v>
       </c>
-      <c r="E106" s="28"/>
-      <c r="F106" s="26" t="s">
+      <c r="F106" s="28"/>
+      <c r="G106" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>20140908</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>20140905</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>50</v>
       </c>
@@ -4271,23 +4604,26 @@
       <c r="C107" s="31">
         <v>2</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="32">
         <v>41965.399305555555</v>
       </c>
-      <c r="E107" s="32">
+      <c r="F107" s="32">
         <v>41965.743055555555</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="G107" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="G107">
-        <v>20141201</v>
       </c>
       <c r="H107">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>50</v>
       </c>
@@ -4297,21 +4633,24 @@
       <c r="C108" s="31">
         <v>5</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" s="32">
         <v>41963.78125</v>
       </c>
-      <c r="E108" s="32"/>
-      <c r="F108" s="25" t="s">
+      <c r="F108" s="32"/>
+      <c r="G108" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="G108">
-        <v>20141201</v>
       </c>
       <c r="H108">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>50</v>
       </c>
@@ -4321,24 +4660,27 @@
       <c r="C109" s="31">
         <v>6</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="32">
         <v>41978.604166666664</v>
       </c>
-      <c r="E109" s="32"/>
-      <c r="F109" s="25" t="s">
+      <c r="F109" s="32"/>
+      <c r="G109" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="G109">
-        <v>20141210</v>
       </c>
       <c r="H109">
         <v>20141210</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109">
+        <v>20141210</v>
+      </c>
+      <c r="J109" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>50</v>
       </c>
@@ -4348,23 +4690,26 @@
       <c r="C110" s="31">
         <v>2</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="32">
         <v>41981.447916666664</v>
       </c>
-      <c r="E110" s="32">
+      <c r="F110" s="32">
         <v>41982.381944444445</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="G110" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="G110">
-        <v>20141210</v>
       </c>
       <c r="H110">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>50</v>
       </c>
@@ -4374,21 +4719,24 @@
       <c r="C111" s="31">
         <v>5</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="32">
         <v>41982.395833333336</v>
       </c>
-      <c r="E111" s="32"/>
-      <c r="F111" s="25" t="s">
+      <c r="F111" s="32"/>
+      <c r="G111" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="G111">
-        <v>20141210</v>
       </c>
       <c r="H111">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>50</v>
       </c>
@@ -4398,24 +4746,27 @@
       <c r="C112" s="31">
         <v>6</v>
       </c>
-      <c r="D112" s="32">
+      <c r="D112" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="32">
         <v>41988.40625</v>
       </c>
-      <c r="E112" s="32"/>
-      <c r="F112" s="25" t="s">
+      <c r="F112" s="32"/>
+      <c r="G112" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>20150112</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>20141216</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>50</v>
       </c>
@@ -4425,24 +4776,27 @@
       <c r="C113" s="31">
         <v>6</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D113" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" s="32">
         <v>41995.527777777781</v>
       </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="32"/>
+      <c r="G113" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>20150112</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>20141223</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>50</v>
       </c>
@@ -4452,23 +4806,26 @@
       <c r="C114" s="31">
         <v>2</v>
       </c>
-      <c r="D114" s="35">
+      <c r="D114" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114" s="35">
         <v>42007.493055555555</v>
       </c>
-      <c r="E114" s="35">
+      <c r="F114" s="35">
         <v>42009.208333333336</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="G114" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>20150112</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>20150106</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>50</v>
       </c>
@@ -4478,23 +4835,26 @@
       <c r="C115" s="31">
         <v>1</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D115" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" s="35">
         <v>42007.493055555555</v>
       </c>
-      <c r="E115" s="35">
+      <c r="F115" s="35">
         <v>42007.927083333336</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="G115" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>20150112</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>20150106</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
         <v>50</v>
       </c>
@@ -4504,23 +4864,26 @@
       <c r="C116" s="31">
         <v>1</v>
       </c>
-      <c r="D116" s="35">
+      <c r="D116" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E116" s="35">
         <v>42007.965277777781</v>
       </c>
-      <c r="E116" s="35">
+      <c r="F116" s="35">
         <v>42008.388888888891</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="G116" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>20150112</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>20150106</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
         <v>50</v>
       </c>
@@ -4530,23 +4893,26 @@
       <c r="C117" s="31">
         <v>1</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="35">
         <v>42008.423611111109</v>
       </c>
-      <c r="E117" s="35">
+      <c r="F117" s="35">
         <v>42008.826388888891</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="G117" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>20150112</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>20150106</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
         <v>50</v>
       </c>
@@ -4556,23 +4922,26 @@
       <c r="C118" s="31">
         <v>1</v>
       </c>
-      <c r="D118" s="35">
+      <c r="D118" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118" s="35">
         <v>42008.885416666664</v>
       </c>
-      <c r="E118" s="35">
+      <c r="F118" s="35">
         <v>42009.208333333336</v>
       </c>
-      <c r="F118" s="31" t="s">
+      <c r="G118" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>20150112</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>20150106</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
         <v>50</v>
       </c>
@@ -4582,21 +4951,24 @@
       <c r="C119" s="31">
         <v>5</v>
       </c>
-      <c r="D119" s="35">
+      <c r="D119" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" s="35">
         <v>42009.590277777781</v>
       </c>
-      <c r="E119" s="36"/>
-      <c r="F119" s="31" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>20150112</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>20150106</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
         <v>50</v>
       </c>
@@ -4606,21 +4978,24 @@
       <c r="C120" s="31">
         <v>6</v>
       </c>
-      <c r="D120" s="35">
+      <c r="D120" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E120" s="35">
         <v>42019.40625</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="37" t="s">
+      <c r="F120" s="36"/>
+      <c r="G120" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>20150120</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>20150116</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
         <v>50</v>
       </c>
@@ -4630,23 +5005,26 @@
       <c r="C121" s="38">
         <v>2</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E121" s="39">
         <v>42066.572916666664</v>
       </c>
-      <c r="E121" s="39">
+      <c r="F121" s="39">
         <v>42067.427083333336</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="G121" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>20150311</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>20150306</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
         <v>50</v>
       </c>
@@ -4656,26 +5034,29 @@
       <c r="C122" s="31">
         <v>2</v>
       </c>
-      <c r="D122" s="32">
+      <c r="D122" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="32">
         <v>42072.659722222219</v>
       </c>
-      <c r="E122" s="32">
+      <c r="F122" s="32">
         <v>42075.246527777781</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="G122" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>20150324</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>20150316</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
         <v>50</v>
       </c>
@@ -4685,26 +5066,29 @@
       <c r="C123" s="31">
         <v>1</v>
       </c>
-      <c r="D123" s="32">
+      <c r="D123" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" s="32">
         <v>42072.659722222219</v>
       </c>
-      <c r="E123" s="32">
+      <c r="F123" s="32">
         <v>42073.614583333336</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="G123" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>20150324</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>20150316</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
         <v>50</v>
       </c>
@@ -4714,23 +5098,26 @@
       <c r="C124" s="31">
         <v>1</v>
       </c>
-      <c r="D124" s="32">
+      <c r="D124" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E124" s="32">
         <v>42073.694444444445</v>
       </c>
-      <c r="E124" s="32">
+      <c r="F124" s="32">
         <v>42074.822916666664</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="G124" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>20150324</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>20150313</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
         <v>50</v>
       </c>
@@ -4740,23 +5127,26 @@
       <c r="C125" s="31">
         <v>1</v>
       </c>
-      <c r="D125" s="32">
+      <c r="D125" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="32">
         <v>42074.982638888891</v>
       </c>
-      <c r="E125" s="32">
+      <c r="F125" s="32">
         <v>42075.246527777781</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="G125" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>20150324</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>20150313</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>50</v>
       </c>
@@ -4766,23 +5156,26 @@
       <c r="C126" s="31">
         <v>2</v>
       </c>
-      <c r="D126" s="32">
+      <c r="D126" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E126" s="32">
         <v>42086.607638888891</v>
       </c>
-      <c r="E126" s="32">
+      <c r="F126" s="32">
         <v>42087.274305555555</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="G126" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="G126">
-        <v>20150326</v>
       </c>
       <c r="H126">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
         <v>50</v>
       </c>
@@ -4792,23 +5185,26 @@
       <c r="C127" s="31">
         <v>1</v>
       </c>
-      <c r="D127" s="32">
+      <c r="D127" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E127" s="32">
         <v>42086.607638888891</v>
       </c>
-      <c r="E127" s="32">
+      <c r="F127" s="32">
         <v>42086.875</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="G127" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="G127">
-        <v>20150326</v>
       </c>
       <c r="H127">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
         <v>50</v>
       </c>
@@ -4818,23 +5214,26 @@
       <c r="C128" s="31">
         <v>1</v>
       </c>
-      <c r="D128" s="32">
+      <c r="D128" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="32">
         <v>42086.90625</v>
       </c>
-      <c r="E128" s="32">
+      <c r="F128" s="32">
         <v>42087.274305555555</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="G128" s="31" t="s">
         <v>203</v>
-      </c>
-      <c r="G128">
-        <v>20150326</v>
       </c>
       <c r="H128">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
         <v>50</v>
       </c>
@@ -4844,23 +5243,26 @@
       <c r="C129" s="31">
         <v>2</v>
       </c>
-      <c r="D129" s="32">
+      <c r="D129" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" s="32">
         <v>42150.642361111109</v>
       </c>
-      <c r="E129" s="32">
+      <c r="F129" s="32">
         <v>42151.572916666664</v>
       </c>
-      <c r="F129" s="40" t="s">
+      <c r="G129" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>20150625</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>20150529</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>50</v>
       </c>
@@ -4870,23 +5272,26 @@
       <c r="C130" s="31">
         <v>2</v>
       </c>
-      <c r="D130" s="32">
+      <c r="D130" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="32">
         <v>42255.361111111109</v>
       </c>
-      <c r="E130" s="32">
+      <c r="F130" s="32">
         <v>42255.690972222219</v>
       </c>
-      <c r="F130" s="37" t="s">
+      <c r="G130" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>20150910</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>20150911</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
         <v>51</v>
       </c>
@@ -4896,21 +5301,24 @@
       <c r="C131" s="26">
         <v>5</v>
       </c>
-      <c r="D131" s="27">
+      <c r="D131" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" s="27">
         <v>41617.583333333336</v>
       </c>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26" t="s">
+      <c r="F131" s="26"/>
+      <c r="G131" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="G131">
-        <v>20131211</v>
       </c>
       <c r="H131">
         <v>20131211</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>20131211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
         <v>51</v>
       </c>
@@ -4920,21 +5328,24 @@
       <c r="C132" s="26">
         <v>5</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E132" s="27">
         <v>41628.635416666664</v>
       </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="26" t="s">
+      <c r="F132" s="29"/>
+      <c r="G132" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="G132">
-        <v>20131223</v>
       </c>
       <c r="H132">
         <v>20131223</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>20131223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
         <v>51</v>
       </c>
@@ -4944,21 +5355,24 @@
       <c r="C133" s="26">
         <v>5</v>
       </c>
-      <c r="D133" s="27">
+      <c r="D133" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" s="27">
         <v>41649.621527777781</v>
       </c>
-      <c r="E133" s="29"/>
-      <c r="F133" s="26" t="s">
+      <c r="F133" s="29"/>
+      <c r="G133" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>20140122</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>20140121</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
         <v>51</v>
       </c>
@@ -4968,24 +5382,27 @@
       <c r="C134" s="26">
         <v>5</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E134" s="27">
         <v>41691.625</v>
       </c>
-      <c r="E134" s="29"/>
-      <c r="F134" s="26" t="s">
+      <c r="F134" s="29"/>
+      <c r="G134" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>20140305</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>20140227</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
         <v>51</v>
       </c>
@@ -4995,21 +5412,24 @@
       <c r="C135" s="26">
         <v>5</v>
       </c>
-      <c r="D135" s="27">
+      <c r="D135" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E135" s="27">
         <v>41744.5</v>
       </c>
-      <c r="E135" s="30"/>
-      <c r="F135" s="26" t="s">
+      <c r="F135" s="30"/>
+      <c r="G135" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>20140424</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>20140423</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
         <v>51</v>
       </c>
@@ -5019,21 +5439,24 @@
       <c r="C136" s="26">
         <v>5</v>
       </c>
-      <c r="D136" s="28">
+      <c r="D136" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E136" s="28">
         <v>41886.802083333336</v>
       </c>
-      <c r="E136" s="30"/>
-      <c r="F136" s="26" t="s">
+      <c r="F136" s="30"/>
+      <c r="G136" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>20140908</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>20140905</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
         <v>51</v>
       </c>
@@ -5043,21 +5466,24 @@
       <c r="C137" s="31">
         <v>5</v>
       </c>
-      <c r="D137" s="32">
+      <c r="D137" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E137" s="32">
         <v>41965.677083333336</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="25" t="s">
+      <c r="F137" s="30"/>
+      <c r="G137" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="G137">
-        <v>20141201</v>
       </c>
       <c r="H137">
         <v>20141201</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>20141201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
         <v>51</v>
       </c>
@@ -5067,24 +5493,27 @@
       <c r="C138" s="31">
         <v>6</v>
       </c>
-      <c r="D138" s="32">
+      <c r="D138" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E138" s="32">
         <v>41978.4375</v>
       </c>
-      <c r="E138" s="30"/>
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="30"/>
+      <c r="G138" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="G138">
-        <v>20141210</v>
       </c>
       <c r="H138">
         <v>20141210</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138">
+        <v>20141210</v>
+      </c>
+      <c r="J138" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>51</v>
       </c>
@@ -5094,21 +5523,24 @@
       <c r="C139" s="31">
         <v>5</v>
       </c>
-      <c r="D139" s="32">
+      <c r="D139" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E139" s="32">
         <v>41982.510416666664</v>
       </c>
-      <c r="E139" s="30"/>
-      <c r="F139" s="25" t="s">
+      <c r="F139" s="30"/>
+      <c r="G139" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="G139">
-        <v>20141210</v>
       </c>
       <c r="H139">
         <v>20141210</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>20141210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
         <v>51</v>
       </c>
@@ -5118,24 +5550,27 @@
       <c r="C140" s="31">
         <v>6</v>
       </c>
-      <c r="D140" s="32">
+      <c r="D140" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E140" s="32">
         <v>41988.5</v>
       </c>
-      <c r="E140" s="30"/>
-      <c r="F140" s="25" t="s">
+      <c r="F140" s="30"/>
+      <c r="G140" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>20150112</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>20141216</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>51</v>
       </c>
@@ -5145,24 +5580,27 @@
       <c r="C141" s="31">
         <v>6</v>
       </c>
-      <c r="D141" s="32">
+      <c r="D141" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" s="32">
         <v>41995.489583333336</v>
       </c>
-      <c r="E141" s="30"/>
-      <c r="F141" s="25" t="s">
+      <c r="F141" s="30"/>
+      <c r="G141" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>20150112</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>20141223</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
         <v>51</v>
       </c>
@@ -5172,21 +5610,24 @@
       <c r="C142" s="33">
         <v>5</v>
       </c>
-      <c r="D142" s="34">
+      <c r="D142" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E142" s="34">
         <v>42009.510416666664</v>
       </c>
-      <c r="E142" s="32"/>
-      <c r="F142" s="25" t="s">
+      <c r="F142" s="32"/>
+      <c r="G142" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>20150112</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>20150106</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
         <v>51</v>
       </c>
@@ -5196,21 +5637,24 @@
       <c r="C143" s="33">
         <v>6</v>
       </c>
-      <c r="D143" s="34">
+      <c r="D143" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E143" s="34">
         <v>42019.625</v>
       </c>
-      <c r="E143" s="32"/>
-      <c r="F143" s="25" t="s">
+      <c r="F143" s="32"/>
+      <c r="G143" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>20150120</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>20150116</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
         <v>51</v>
       </c>
@@ -5220,21 +5664,24 @@
       <c r="C144" s="31">
         <v>5</v>
       </c>
-      <c r="D144" s="32">
+      <c r="D144" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E144" s="32">
         <v>42087.604166666664</v>
       </c>
-      <c r="E144" s="32"/>
-      <c r="F144" s="25" t="s">
+      <c r="F144" s="32"/>
+      <c r="G144" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="G144">
-        <v>20150326</v>
       </c>
       <c r="H144">
         <v>20150326</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>20150326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
         <v>51</v>
       </c>
@@ -5244,32 +5691,36 @@
       <c r="C145" s="31">
         <v>5</v>
       </c>
-      <c r="D145" s="32">
+      <c r="D145" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" s="32">
         <v>42256.541666666664</v>
       </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="25" t="s">
+      <c r="F145" s="32"/>
+      <c r="G145" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>20150910</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>20150911</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="14"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D146" s="12"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="14"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>47</v>
       </c>
@@ -5277,15 +5728,16 @@
         <v>100</v>
       </c>
       <c r="C149" s="42"/>
-      <c r="D149" s="10">
+      <c r="D149" s="42"/>
+      <c r="E149" s="10">
         <v>41738.588194444441</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="3"/>
+      <c r="G149" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>48</v>
       </c>
@@ -5293,15 +5745,16 @@
         <v>101</v>
       </c>
       <c r="C150" s="42"/>
-      <c r="D150" s="10">
+      <c r="D150" s="42"/>
+      <c r="E150" s="10">
         <v>41738.490972222222</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="4"/>
+      <c r="G150" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>49</v>
       </c>
@@ -5309,21 +5762,22 @@
         <v>102</v>
       </c>
       <c r="C151" s="42"/>
-      <c r="D151" s="10">
+      <c r="D151" s="42"/>
+      <c r="E151" s="10">
         <v>41715.588194444441</v>
       </c>
-      <c r="E151" s="8"/>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="8"/>
+      <c r="G151" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="G151">
-        <v>20140318</v>
       </c>
       <c r="H151">
         <v>20140318</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>20140318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>50</v>
       </c>
@@ -5331,21 +5785,22 @@
         <v>103</v>
       </c>
       <c r="C152" s="42"/>
-      <c r="D152" s="10">
+      <c r="D152" s="42"/>
+      <c r="E152" s="10">
         <v>41715.518750000003</v>
       </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="9"/>
+      <c r="G152" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="G152">
-        <v>20140318</v>
       </c>
       <c r="H152">
         <v>20140318</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>20140318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>50</v>
       </c>
@@ -5353,20 +5808,21 @@
         <v>164</v>
       </c>
       <c r="C153" s="43"/>
-      <c r="D153" s="18">
+      <c r="D153" s="43"/>
+      <c r="E153" s="18">
         <v>42019.400694444441</v>
       </c>
-      <c r="F153" s="15" t="s">
+      <c r="G153" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>20150120</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>20150116</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>49</v>
       </c>
@@ -5374,20 +5830,21 @@
         <v>166</v>
       </c>
       <c r="C154" s="19"/>
-      <c r="D154" s="20">
+      <c r="D154" s="19"/>
+      <c r="E154" s="20">
         <v>42019.581250000003</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="G154" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>20150120</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>20150116</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>48</v>
       </c>
@@ -5395,20 +5852,21 @@
         <v>167</v>
       </c>
       <c r="C155" s="44"/>
-      <c r="D155" s="21">
+      <c r="D155" s="44"/>
+      <c r="E155" s="21">
         <v>42019.490972222222</v>
       </c>
-      <c r="F155" s="16" t="s">
+      <c r="G155" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>20150120</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>20150116</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>47</v>
       </c>
@@ -5416,16 +5874,17 @@
         <v>170</v>
       </c>
       <c r="C156" s="24"/>
-      <c r="D156" s="23">
+      <c r="D156" s="24"/>
+      <c r="E156" s="23">
         <v>42151.511805555558</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>171</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>20150625</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>20150529</v>
       </c>
     </row>

--- a/optics.sample.log.ALL.xlsx
+++ b/optics.sample.log.ALL.xlsx
@@ -1544,9 +1544,9 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A133" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="D3" sqref="D3"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E34" s="28">
         <v>41649.697916666664</v>
@@ -2691,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E40" s="28">
         <v>41886.21875</v>
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E41" s="28">
         <v>41886.8125</v>
@@ -4089,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E89" s="28">
         <v>41886.213194444441</v>
@@ -4549,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E105" s="28">
         <v>41886.302083333336</v>
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E106" s="28">
         <v>41886.71875</v>
@@ -5440,7 +5440,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E136" s="28">
         <v>41886.802083333336</v>
